--- a/data/input/hunting_scenarios_abs.xlsx
+++ b/data/input/hunting_scenarios_abs.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9696"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="N" sheetId="4" r:id="rId1"/>
-    <sheet name="abs0" sheetId="5" r:id="rId2"/>
-    <sheet name="abs1" sheetId="1" r:id="rId3"/>
-    <sheet name="abs2" sheetId="2" r:id="rId4"/>
+    <sheet name="A_0" sheetId="5" r:id="rId2"/>
+    <sheet name="A_1" sheetId="1" r:id="rId3"/>
+    <sheet name="A_2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
   <si>
     <t>juvenileF</t>
   </si>
@@ -47,13 +47,24 @@
   <si>
     <t>adult5M</t>
   </si>
+  <si>
+    <t>Population</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,8 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -365,13 +378,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -423,7 +436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -449,7 +462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -475,7 +488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -501,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -527,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -553,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -579,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -605,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -631,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -657,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -683,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -722,9 +735,9 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -776,7 +789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -802,7 +815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -828,7 +841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -854,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -880,7 +893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -906,7 +919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -932,7 +945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -958,7 +971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -984,7 +997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1010,7 +1023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1036,7 +1049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1062,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>SUM(A2:A13)</f>
         <v>60</v>
@@ -1113,9 +1126,9 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1167,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1193,7 +1206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1219,7 +1232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1245,7 +1258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:F13" si="0">A$17</f>
         <v>0</v>
@@ -1275,7 +1288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1305,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1335,7 +1348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1365,7 +1378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1395,7 +1408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1425,7 +1438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1455,7 +1468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1485,7 +1498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>SUM(A2:A13)</f>
         <v>20</v>
@@ -1530,387 +1543,405 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
       <c r="B2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5</v>
-      </c>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
       <c r="B3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>5</v>
-      </c>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
       <c r="B4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5</v>
-      </c>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
       <c r="B7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
       <c r="B8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
       <c r="B9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5</v>
-      </c>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
       <c r="B10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>5</v>
-      </c>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
       <c r="B11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>5</v>
-      </c>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
       <c r="B12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>5</v>
-      </c>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
       <c r="B13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f>SUM(A2:A13)</f>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(B2:B13)</f>
         <v>60</v>
       </c>
-      <c r="B16">
-        <f t="shared" ref="B16:H16" si="0">SUM(B2:B13)</f>
+      <c r="C16">
+        <f t="shared" ref="C16:I16" si="0">SUM(C2:C13)</f>
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J16">
-        <f>SUM(A16:H16)</f>
+      <c r="K16">
+        <f>SUM(B16:I16)</f>
         <v>372</v>
       </c>
     </row>

--- a/data/input/hunting_scenarios_abs.xlsx
+++ b/data/input/hunting_scenarios_abs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9690" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9696"/>
   </bookViews>
   <sheets>
     <sheet name="N" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>juvenileF</t>
   </si>
@@ -36,19 +36,13 @@
     <t>yearlingM</t>
   </si>
   <si>
-    <t>adult3F</t>
+    <t>Population</t>
   </si>
   <si>
-    <t>adult5F</t>
+    <t>adultF</t>
   </si>
   <si>
-    <t>adult3M</t>
-  </si>
-  <si>
-    <t>adult5M</t>
-  </si>
-  <si>
-    <t>Population</t>
+    <t>adultM</t>
   </si>
 </sst>
 </file>
@@ -376,23 +370,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -406,14 +400,8 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0</v>
       </c>
@@ -432,14 +420,8 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0</v>
       </c>
@@ -458,14 +440,8 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -484,14 +460,8 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0</v>
       </c>
@@ -510,14 +480,8 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>0</v>
       </c>
@@ -536,14 +500,8 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0</v>
       </c>
@@ -562,14 +520,8 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0</v>
       </c>
@@ -588,14 +540,8 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>0</v>
       </c>
@@ -614,14 +560,8 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>0</v>
       </c>
@@ -640,14 +580,8 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0</v>
       </c>
@@ -666,14 +600,8 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>0</v>
       </c>
@@ -692,14 +620,8 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>0</v>
       </c>
@@ -716,9 +638,6 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
         <v>0</v>
       </c>
     </row>
@@ -729,23 +648,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -759,14 +678,8 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>5</v>
       </c>
@@ -785,14 +698,8 @@
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>5</v>
       </c>
@@ -811,14 +718,8 @@
       <c r="G3">
         <v>5</v>
       </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>5</v>
       </c>
@@ -837,14 +738,8 @@
       <c r="G4">
         <v>5</v>
       </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>5</v>
       </c>
@@ -863,14 +758,8 @@
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>5</v>
       </c>
@@ -889,14 +778,8 @@
       <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -915,14 +798,8 @@
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
@@ -941,14 +818,8 @@
       <c r="G8">
         <v>5</v>
       </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -967,14 +838,8 @@
       <c r="G9">
         <v>5</v>
       </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>5</v>
       </c>
@@ -993,14 +858,8 @@
       <c r="G10">
         <v>5</v>
       </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>5</v>
       </c>
@@ -1019,14 +878,8 @@
       <c r="G11">
         <v>5</v>
       </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>5</v>
       </c>
@@ -1045,14 +898,8 @@
       <c r="G12">
         <v>5</v>
       </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>5</v>
       </c>
@@ -1071,46 +918,35 @@
       <c r="G13">
         <v>5</v>
       </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f>SUM(A2:A13)</f>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f>SUM(B2:B13)</f>
         <v>60</v>
       </c>
-      <c r="B16">
-        <f t="shared" ref="B16:H16" si="0">SUM(B2:B13)</f>
+      <c r="C16">
+        <f t="shared" ref="C16:G16" si="0">SUM(C2:C13)</f>
         <v>60</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="J16">
-        <f>SUM(A16:H16)</f>
-        <v>480</v>
+      <c r="I16">
+        <f>SUM(B16:G16)</f>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -1120,23 +956,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -1150,14 +986,8 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>5</v>
       </c>
@@ -1176,14 +1006,8 @@
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>5</v>
       </c>
@@ -1202,14 +1026,8 @@
       <c r="G3">
         <v>5</v>
       </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>5</v>
       </c>
@@ -1228,14 +1046,8 @@
       <c r="G4">
         <v>5</v>
       </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>5</v>
       </c>
@@ -1254,21 +1066,15 @@
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" ref="A6:F13" si="0">A$17</f>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B6:F13" si="0">B$17</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1284,21 +1090,15 @@
       <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1314,21 +1114,15 @@
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -1344,21 +1138,15 @@
       <c r="G8">
         <v>5</v>
       </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1374,21 +1162,15 @@
       <c r="G9">
         <v>5</v>
       </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -1404,21 +1186,15 @@
       <c r="G10">
         <v>5</v>
       </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1434,21 +1210,15 @@
       <c r="G11">
         <v>5</v>
       </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -1464,21 +1234,15 @@
       <c r="G12">
         <v>5</v>
       </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1494,22 +1258,15 @@
       <c r="G13">
         <v>5</v>
       </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f>SUM(A2:A13)</f>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f>SUM(B2:B13)</f>
         <v>20</v>
       </c>
-      <c r="B16">
-        <f t="shared" ref="B16:H16" si="1">SUM(B2:B13)</f>
+      <c r="C16">
+        <f t="shared" ref="C16:G16" si="1">SUM(C2:C13)</f>
         <v>20</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>60</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
@@ -1527,13 +1284,9 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="J16">
-        <f>SUM(A16:H16)</f>
-        <v>320</v>
+      <c r="I16">
+        <f>SUM(B16:G16)</f>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1543,20 +1296,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1565,25 +1318,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2">
         <v>5</v>
@@ -1592,25 +1339,19 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>5</v>
@@ -1619,25 +1360,19 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>5</v>
@@ -1646,25 +1381,19 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>5</v>
@@ -1673,25 +1402,19 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>5</v>
@@ -1700,25 +1423,19 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>5</v>
@@ -1727,25 +1444,19 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>5</v>
@@ -1754,25 +1465,19 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9">
         <v>5</v>
@@ -1781,25 +1486,19 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>5</v>
@@ -1808,25 +1507,19 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>5</v>
@@ -1835,25 +1528,19 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12">
         <v>5</v>
@@ -1862,25 +1549,19 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13">
         <v>5</v>
@@ -1889,36 +1570,30 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16">
         <f>SUM(B2:B13)</f>
         <v>60</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:I16" si="0">SUM(C2:C13)</f>
+        <f t="shared" ref="C16:G16" si="0">SUM(C2:C13)</f>
         <v>12</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -1926,23 +1601,15 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="K16">
-        <f>SUM(B16:I16)</f>
-        <v>372</v>
+        <f>SUM(B16:G16)</f>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
